--- a/data/pca/factorExposure/factorExposure_2017-01-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-01-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.007491229720055655</v>
+        <v>0.01317533098031222</v>
       </c>
       <c r="C2">
-        <v>-0.02492422300215065</v>
+        <v>-0.03999757991894779</v>
       </c>
       <c r="D2">
-        <v>0.03234893326313785</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03193202832882765</v>
+      </c>
+      <c r="E2">
+        <v>-0.05330380998018153</v>
+      </c>
+      <c r="F2">
+        <v>-0.01281347098066989</v>
+      </c>
+      <c r="G2">
+        <v>-0.1038779803181478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0518884454084197</v>
+        <v>0.03815000169920867</v>
       </c>
       <c r="C3">
-        <v>-0.1104200856395784</v>
+        <v>-0.09191151067109392</v>
       </c>
       <c r="D3">
-        <v>0.03422788820456574</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.0187153634164065</v>
+      </c>
+      <c r="E3">
+        <v>-0.1050349334993684</v>
+      </c>
+      <c r="F3">
+        <v>-0.01846783984967066</v>
+      </c>
+      <c r="G3">
+        <v>-0.118287709104565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05336687092448263</v>
+        <v>0.05531542155181603</v>
       </c>
       <c r="C4">
-        <v>-0.06138892987420284</v>
+        <v>-0.06267046694850704</v>
       </c>
       <c r="D4">
-        <v>0.03274502914307203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02659173753710849</v>
+      </c>
+      <c r="E4">
+        <v>-0.05160016532998993</v>
+      </c>
+      <c r="F4">
+        <v>-0.002969528812737193</v>
+      </c>
+      <c r="G4">
+        <v>-0.09544661875093825</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01579383176514142</v>
+        <v>0.03322463023010077</v>
       </c>
       <c r="C6">
-        <v>-0.04922448407397553</v>
+        <v>-0.04595017885429735</v>
       </c>
       <c r="D6">
-        <v>0.02751126610075008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0195216728554415</v>
+      </c>
+      <c r="E6">
+        <v>-0.05791905369572064</v>
+      </c>
+      <c r="F6">
+        <v>-0.008005493883575751</v>
+      </c>
+      <c r="G6">
+        <v>-0.08691630382205912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01103443816098846</v>
+        <v>0.02023964164825069</v>
       </c>
       <c r="C7">
-        <v>-0.03938565822702982</v>
+        <v>-0.03558109732834343</v>
       </c>
       <c r="D7">
-        <v>0.02257078052151086</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01544994158974285</v>
+      </c>
+      <c r="E7">
+        <v>-0.0264870228292937</v>
+      </c>
+      <c r="F7">
+        <v>0.001030220894043405</v>
+      </c>
+      <c r="G7">
+        <v>-0.125468681998985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.005232518476447728</v>
+        <v>0.003732482320142907</v>
       </c>
       <c r="C8">
-        <v>-0.004882665079242322</v>
+        <v>-0.0212194971862718</v>
       </c>
       <c r="D8">
-        <v>0.004178014477404199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004762553341292827</v>
+      </c>
+      <c r="E8">
+        <v>-0.03752216251436676</v>
+      </c>
+      <c r="F8">
+        <v>-0.004215861101357604</v>
+      </c>
+      <c r="G8">
+        <v>-0.07156562041329333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02462854176362705</v>
+        <v>0.03374090192577647</v>
       </c>
       <c r="C9">
-        <v>-0.03813878199586416</v>
+        <v>-0.04550775560669335</v>
       </c>
       <c r="D9">
-        <v>0.02146958103130981</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01758256713469641</v>
+      </c>
+      <c r="E9">
+        <v>-0.03737318402537176</v>
+      </c>
+      <c r="F9">
+        <v>-0.001194126999572066</v>
+      </c>
+      <c r="G9">
+        <v>-0.1017006962312834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1107349595061021</v>
+        <v>0.09752979108290824</v>
       </c>
       <c r="C10">
-        <v>0.1652095856954858</v>
+        <v>0.1894243078808284</v>
       </c>
       <c r="D10">
-        <v>-0.07510453270664072</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0150793693036962</v>
+      </c>
+      <c r="E10">
+        <v>-0.01707879307082694</v>
+      </c>
+      <c r="F10">
+        <v>-0.02691892122337088</v>
+      </c>
+      <c r="G10">
+        <v>-0.05327444037891576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03237241329429371</v>
+        <v>0.0356438939566953</v>
       </c>
       <c r="C11">
-        <v>-0.05886112304797756</v>
+        <v>-0.05211964822601656</v>
       </c>
       <c r="D11">
-        <v>0.01261322756852489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0028793322961787</v>
+      </c>
+      <c r="E11">
+        <v>-0.02593522742187988</v>
+      </c>
+      <c r="F11">
+        <v>0.01441814733962975</v>
+      </c>
+      <c r="G11">
+        <v>-0.07625831389733576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03048254838788074</v>
+        <v>0.03787210205511322</v>
       </c>
       <c r="C12">
-        <v>-0.04951728149168064</v>
+        <v>-0.04655086973916429</v>
       </c>
       <c r="D12">
-        <v>0.01554344621695741</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.007047776722733095</v>
+      </c>
+      <c r="E12">
+        <v>-0.01710482781404891</v>
+      </c>
+      <c r="F12">
+        <v>0.003828057221931555</v>
+      </c>
+      <c r="G12">
+        <v>-0.075327304983277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.007008773532428307</v>
+        <v>0.01016473007587173</v>
       </c>
       <c r="C13">
-        <v>-0.02360130481535575</v>
+        <v>-0.03550475892090491</v>
       </c>
       <c r="D13">
-        <v>0.02923839170936281</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0300014767637951</v>
+      </c>
+      <c r="E13">
+        <v>-0.06464043585622808</v>
+      </c>
+      <c r="F13">
+        <v>-0.01368254743238194</v>
+      </c>
+      <c r="G13">
+        <v>-0.1350459694505882</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.002801967891644129</v>
+        <v>0.009075841190525784</v>
       </c>
       <c r="C14">
-        <v>-0.02402441538502435</v>
+        <v>-0.02511121255598546</v>
       </c>
       <c r="D14">
-        <v>0.01474422170180808</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01172284917958269</v>
+      </c>
+      <c r="E14">
+        <v>-0.02227494193538182</v>
+      </c>
+      <c r="F14">
+        <v>-0.007295324842362672</v>
+      </c>
+      <c r="G14">
+        <v>-0.1156595260021286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0277314572019461</v>
+        <v>0.03402208186476197</v>
       </c>
       <c r="C16">
-        <v>-0.04080700753172047</v>
+        <v>-0.04500949546151468</v>
       </c>
       <c r="D16">
-        <v>0.008016335031624959</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002588944396006224</v>
+      </c>
+      <c r="E16">
+        <v>-0.02309380031595154</v>
+      </c>
+      <c r="F16">
+        <v>-0.004643943956763095</v>
+      </c>
+      <c r="G16">
+        <v>-0.08309992045419035</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02042001343187974</v>
+        <v>0.01832910624061499</v>
       </c>
       <c r="C19">
-        <v>-0.04775666858081878</v>
+        <v>-0.0470821128757008</v>
       </c>
       <c r="D19">
-        <v>0.02459125480078142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02290770622192334</v>
+      </c>
+      <c r="E19">
+        <v>-0.09965072736302975</v>
+      </c>
+      <c r="F19">
+        <v>-0.01122514803453987</v>
+      </c>
+      <c r="G19">
+        <v>-0.133693264451663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.006473735646321483</v>
+        <v>0.01451059455540982</v>
       </c>
       <c r="C20">
-        <v>-0.03340016703860969</v>
+        <v>-0.03708367256871263</v>
       </c>
       <c r="D20">
-        <v>0.02047435914880984</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01597036351662509</v>
+      </c>
+      <c r="E20">
+        <v>-0.04791419606404852</v>
+      </c>
+      <c r="F20">
+        <v>-0.02651400677214497</v>
+      </c>
+      <c r="G20">
+        <v>-0.1085594843865732</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.00076419466172132</v>
+        <v>0.006666048184951029</v>
       </c>
       <c r="C21">
-        <v>-0.02657862774544184</v>
+        <v>-0.03145024928736707</v>
       </c>
       <c r="D21">
-        <v>0.02231478893193791</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02225339246862056</v>
+      </c>
+      <c r="E21">
+        <v>-0.06761711766428116</v>
+      </c>
+      <c r="F21">
+        <v>-0.01550572129926629</v>
+      </c>
+      <c r="G21">
+        <v>-0.1510819675446109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0006648061125561603</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.007238393970787004</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.002942777863481059</v>
+      </c>
+      <c r="E22">
+        <v>-0.02154000115536769</v>
+      </c>
+      <c r="F22">
+        <v>0.004319513290803192</v>
+      </c>
+      <c r="G22">
+        <v>-0.009020132358571863</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0006404776362133606</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.007148710816403375</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.002928687275649675</v>
+      </c>
+      <c r="E23">
+        <v>-0.02145889494105995</v>
+      </c>
+      <c r="F23">
+        <v>0.004068396320657118</v>
+      </c>
+      <c r="G23">
+        <v>-0.008884084848160894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.02203078496159901</v>
+        <v>0.0303423943585165</v>
       </c>
       <c r="C24">
-        <v>-0.04761980611291981</v>
+        <v>-0.04941609106357052</v>
       </c>
       <c r="D24">
-        <v>0.01596128178780492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007688319681374768</v>
+      </c>
+      <c r="E24">
+        <v>-0.0212103078689812</v>
+      </c>
+      <c r="F24">
+        <v>0.004388102032862431</v>
+      </c>
+      <c r="G24">
+        <v>-0.08446209773196131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.03811351850259582</v>
+        <v>0.04305290930371358</v>
       </c>
       <c r="C25">
-        <v>-0.05789878703547972</v>
+        <v>-0.056524658115587</v>
       </c>
       <c r="D25">
-        <v>0.02176823725899501</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01181916760555882</v>
+      </c>
+      <c r="E25">
+        <v>-0.01451724643236913</v>
+      </c>
+      <c r="F25">
+        <v>0.004933806595439178</v>
+      </c>
+      <c r="G25">
+        <v>-0.09109626091297079</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.004846865365221716</v>
+        <v>0.01447727080420827</v>
       </c>
       <c r="C26">
-        <v>0.0006989015968611975</v>
+        <v>-0.009035439497976966</v>
       </c>
       <c r="D26">
-        <v>0.02218375936442094</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02464142171717432</v>
+      </c>
+      <c r="E26">
+        <v>-0.01699372420990261</v>
+      </c>
+      <c r="F26">
+        <v>-0.005149753576080886</v>
+      </c>
+      <c r="G26">
+        <v>-0.08551427919722854</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.136260330953836</v>
+        <v>0.1277789145433529</v>
       </c>
       <c r="C28">
-        <v>0.1938488424255987</v>
+        <v>0.2430276644856993</v>
       </c>
       <c r="D28">
-        <v>-0.07403917609009397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006268199418645617</v>
+      </c>
+      <c r="E28">
+        <v>0.000206779118821407</v>
+      </c>
+      <c r="F28">
+        <v>-0.02596276139553319</v>
+      </c>
+      <c r="G28">
+        <v>-0.05175107258651031</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.008974724477399373</v>
+        <v>0.007957793759556065</v>
       </c>
       <c r="C29">
-        <v>-0.01912756100117892</v>
+        <v>-0.02154401649956217</v>
       </c>
       <c r="D29">
-        <v>0.0116463382730498</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01049194181450771</v>
+      </c>
+      <c r="E29">
+        <v>-0.01386796594393971</v>
+      </c>
+      <c r="F29">
+        <v>-0.01191040859745612</v>
+      </c>
+      <c r="G29">
+        <v>-0.1050640310184344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.0286131382782285</v>
+        <v>0.03804191717242843</v>
       </c>
       <c r="C30">
-        <v>-0.07305439691756008</v>
+        <v>-0.06302818488630647</v>
       </c>
       <c r="D30">
-        <v>0.04266468395903628</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.031727679953392</v>
+      </c>
+      <c r="E30">
+        <v>-0.07828220841357174</v>
+      </c>
+      <c r="F30">
+        <v>0.01562960518281268</v>
+      </c>
+      <c r="G30">
+        <v>-0.1214110134833294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.0377986498798602</v>
+        <v>0.05361746848899792</v>
       </c>
       <c r="C31">
-        <v>-0.02511753491701048</v>
+        <v>-0.03813167147641642</v>
       </c>
       <c r="D31">
-        <v>0.005960486709703894</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.004452085673284718</v>
+      </c>
+      <c r="E31">
+        <v>-0.00381104125077975</v>
+      </c>
+      <c r="F31">
+        <v>-0.03495845172012609</v>
+      </c>
+      <c r="G31">
+        <v>-0.09897977098948704</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.003020268204576872</v>
+        <v>0.001827403063946062</v>
       </c>
       <c r="C32">
-        <v>-0.03428522542178836</v>
+        <v>-0.01993181800489865</v>
       </c>
       <c r="D32">
-        <v>0.002525700982642131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.001035491804190527</v>
+      </c>
+      <c r="E32">
+        <v>-0.05208363212528516</v>
+      </c>
+      <c r="F32">
+        <v>0.02404354554143931</v>
+      </c>
+      <c r="G32">
+        <v>-0.07291637665855161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02397073507883423</v>
+        <v>0.02696143762503936</v>
       </c>
       <c r="C33">
-        <v>-0.05103250531674381</v>
+        <v>-0.04733225126727832</v>
       </c>
       <c r="D33">
-        <v>0.02285041465917181</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01844406609736128</v>
+      </c>
+      <c r="E33">
+        <v>-0.06832931134150669</v>
+      </c>
+      <c r="F33">
+        <v>0.003644066743398444</v>
+      </c>
+      <c r="G33">
+        <v>-0.1582281718829515</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04424484594638455</v>
+        <v>0.04121142618195715</v>
       </c>
       <c r="C34">
-        <v>-0.06219136495308673</v>
+        <v>-0.05937128529257425</v>
       </c>
       <c r="D34">
-        <v>0.005009359661108466</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004032697594829888</v>
+      </c>
+      <c r="E34">
+        <v>-0.01927697568432549</v>
+      </c>
+      <c r="F34">
+        <v>0.01843154971327172</v>
+      </c>
+      <c r="G34">
+        <v>-0.07878389575103063</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01017763073755229</v>
+        <v>0.01495894918726151</v>
       </c>
       <c r="C36">
-        <v>-0.0002706839545590605</v>
+        <v>-0.005765406678279984</v>
       </c>
       <c r="D36">
-        <v>0.009753112046356673</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01378646298364303</v>
+      </c>
+      <c r="E36">
+        <v>-0.02074420255186338</v>
+      </c>
+      <c r="F36">
+        <v>-0.007506322838486015</v>
+      </c>
+      <c r="G36">
+        <v>-0.09694801143870156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.02726259315730471</v>
+        <v>0.0304445927922887</v>
       </c>
       <c r="C38">
-        <v>-0.02536349314892476</v>
+        <v>-0.02390744681188305</v>
       </c>
       <c r="D38">
-        <v>-0.005041158403985077</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.006257328015225066</v>
+      </c>
+      <c r="E38">
+        <v>-0.02048437497026499</v>
+      </c>
+      <c r="F38">
+        <v>-0.01239778684704155</v>
+      </c>
+      <c r="G38">
+        <v>-0.0913085719236616</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.02262289969684916</v>
+        <v>0.03637387862788045</v>
       </c>
       <c r="C39">
-        <v>-0.08298672923804283</v>
+        <v>-0.07644466777732291</v>
       </c>
       <c r="D39">
-        <v>0.03025010887356589</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01320286475017481</v>
+      </c>
+      <c r="E39">
+        <v>-0.03990519821589315</v>
+      </c>
+      <c r="F39">
+        <v>0.01315112021491844</v>
+      </c>
+      <c r="G39">
+        <v>-0.09223550648227864</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01339967455177948</v>
+        <v>0.01595857930911698</v>
       </c>
       <c r="C40">
-        <v>-0.01879200575901473</v>
+        <v>-0.03362609962990688</v>
       </c>
       <c r="D40">
-        <v>0.01465610672963506</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01550766535356508</v>
+      </c>
+      <c r="E40">
+        <v>-0.03616524352765977</v>
+      </c>
+      <c r="F40">
+        <v>-0.02602918598157644</v>
+      </c>
+      <c r="G40">
+        <v>-0.1212881954748095</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01179496993819586</v>
+        <v>0.01863511170226292</v>
       </c>
       <c r="C41">
-        <v>0.003271987743581985</v>
+        <v>0.0009583951726791297</v>
       </c>
       <c r="D41">
-        <v>0.000868760044903377</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.005851782055151202</v>
+      </c>
+      <c r="E41">
+        <v>-0.01776552738633073</v>
+      </c>
+      <c r="F41">
+        <v>-0.01369666387886639</v>
+      </c>
+      <c r="G41">
+        <v>-0.09068348397998176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.00762523630987019</v>
+        <v>0.005092244883524469</v>
       </c>
       <c r="C42">
-        <v>-0.03126718943749023</v>
+        <v>-0.0285832644218887</v>
       </c>
       <c r="D42">
-        <v>0.1009893344303384</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08439596927437532</v>
+      </c>
+      <c r="E42">
+        <v>0.005445636975245754</v>
+      </c>
+      <c r="F42">
+        <v>-0.03038366717865349</v>
+      </c>
+      <c r="G42">
+        <v>0.02126870472044839</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.02877364291938156</v>
+        <v>0.03312174063976864</v>
       </c>
       <c r="C43">
-        <v>-0.01011245247607755</v>
+        <v>-0.01287784066175091</v>
       </c>
       <c r="D43">
-        <v>0.002309685951656741</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.007412634943317753</v>
+      </c>
+      <c r="E43">
+        <v>-0.0359923696197483</v>
+      </c>
+      <c r="F43">
+        <v>-0.009859164546522296</v>
+      </c>
+      <c r="G43">
+        <v>-0.1181155725670991</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01217357526555699</v>
+        <v>0.01333206902536193</v>
       </c>
       <c r="C44">
-        <v>-0.05365101799845575</v>
+        <v>-0.05272219329018907</v>
       </c>
       <c r="D44">
-        <v>0.01718212020752445</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.008509563082359612</v>
+      </c>
+      <c r="E44">
+        <v>-0.03899252573056786</v>
+      </c>
+      <c r="F44">
+        <v>-0.01810967700367521</v>
+      </c>
+      <c r="G44">
+        <v>-0.1213741900854518</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.002254350900951761</v>
+        <v>0.01014700391594819</v>
       </c>
       <c r="C46">
-        <v>-0.003518924848606236</v>
+        <v>-0.01460095262302026</v>
       </c>
       <c r="D46">
-        <v>0.01232006725533951</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01341567285334344</v>
+      </c>
+      <c r="E46">
+        <v>-0.006483540202392012</v>
+      </c>
+      <c r="F46">
+        <v>-0.01616095842523484</v>
+      </c>
+      <c r="G46">
+        <v>-0.1127859444827159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05956916966457763</v>
+        <v>0.08211272983305336</v>
       </c>
       <c r="C47">
-        <v>-0.06830688096967154</v>
+        <v>-0.07064380042423886</v>
       </c>
       <c r="D47">
-        <v>0.008320001478064387</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004750324646811119</v>
+      </c>
+      <c r="E47">
+        <v>0.004458741974759361</v>
+      </c>
+      <c r="F47">
+        <v>-0.04350249730694076</v>
+      </c>
+      <c r="G47">
+        <v>-0.09012065785342331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01133170117111206</v>
+        <v>0.01786741049343336</v>
       </c>
       <c r="C48">
-        <v>-0.008897405237752926</v>
+        <v>-0.009924920404452083</v>
       </c>
       <c r="D48">
-        <v>0.001864143767556011</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.003474714984206984</v>
+      </c>
+      <c r="E48">
+        <v>-0.01586504054204547</v>
+      </c>
+      <c r="F48">
+        <v>-0.01998588420444728</v>
+      </c>
+      <c r="G48">
+        <v>-0.10859821491308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.06788704493608741</v>
+        <v>0.07545664834403057</v>
       </c>
       <c r="C50">
-        <v>-0.06727729546310886</v>
+        <v>-0.06930427669038444</v>
       </c>
       <c r="D50">
-        <v>0.00763611715503738</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.001356467903921509</v>
+      </c>
+      <c r="E50">
+        <v>-0.001078082035156069</v>
+      </c>
+      <c r="F50">
+        <v>-0.04331406119644254</v>
+      </c>
+      <c r="G50">
+        <v>-0.1038891802323874</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.0118508910830362</v>
+        <v>0.01161826426275191</v>
       </c>
       <c r="C51">
-        <v>-0.03417116074095874</v>
+        <v>-0.03375483132404637</v>
       </c>
       <c r="D51">
-        <v>0.01522688220293838</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01212426101634919</v>
+      </c>
+      <c r="E51">
+        <v>-0.04022534672422568</v>
+      </c>
+      <c r="F51">
+        <v>0.00921608121257305</v>
+      </c>
+      <c r="G51">
+        <v>-0.1115315408946767</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08705156566482782</v>
+        <v>0.08445664972384495</v>
       </c>
       <c r="C53">
-        <v>-0.0871144972488095</v>
+        <v>-0.08341037238783913</v>
       </c>
       <c r="D53">
-        <v>0.01029145281846517</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003851383135462083</v>
+      </c>
+      <c r="E53">
+        <v>0.02541074810318044</v>
+      </c>
+      <c r="F53">
+        <v>-0.04735396068737242</v>
+      </c>
+      <c r="G53">
+        <v>-0.095046056983184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02664652885926214</v>
+        <v>0.03183539695414388</v>
       </c>
       <c r="C54">
-        <v>-0.004523446563386647</v>
+        <v>-0.0148624938000797</v>
       </c>
       <c r="D54">
-        <v>-0.005530543978773887</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0002793880725292426</v>
+      </c>
+      <c r="E54">
+        <v>-0.02853134932872162</v>
+      </c>
+      <c r="F54">
+        <v>-0.01166877551119062</v>
+      </c>
+      <c r="G54">
+        <v>-0.1132582705690167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.06343361681701601</v>
+        <v>0.0777609886735583</v>
       </c>
       <c r="C55">
-        <v>-0.07127331265354743</v>
+        <v>-0.06770069950808058</v>
       </c>
       <c r="D55">
-        <v>0.008552139039525583</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005753557472042806</v>
+      </c>
+      <c r="E55">
+        <v>0.02858651881797615</v>
+      </c>
+      <c r="F55">
+        <v>-0.04831911285859742</v>
+      </c>
+      <c r="G55">
+        <v>-0.07203002380625777</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.132483880858641</v>
+        <v>0.1393701504573618</v>
       </c>
       <c r="C56">
-        <v>-0.1168890786152998</v>
+        <v>-0.1047554715993499</v>
       </c>
       <c r="D56">
-        <v>0.006090022103314579</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01300166543595913</v>
+      </c>
+      <c r="E56">
+        <v>0.03282819133585455</v>
+      </c>
+      <c r="F56">
+        <v>-0.0545513235930469</v>
+      </c>
+      <c r="G56">
+        <v>-0.05675226940950812</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01030663611951304</v>
+        <v>0.003952884656077162</v>
       </c>
       <c r="C57">
-        <v>-0.003710710301509582</v>
+        <v>-0.003737299122432405</v>
       </c>
       <c r="D57">
-        <v>0.02243265561310241</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02300412268944827</v>
+      </c>
+      <c r="E57">
+        <v>-0.02565648742315305</v>
+      </c>
+      <c r="F57">
+        <v>-7.801932006625404e-05</v>
+      </c>
+      <c r="G57">
+        <v>-0.01249164191018554</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.033046725896336</v>
+        <v>0.03924965550004327</v>
       </c>
       <c r="C58">
-        <v>-0.05675006168724299</v>
+        <v>-0.03073573396729882</v>
       </c>
       <c r="D58">
-        <v>0.01194048203972532</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03633536262910135</v>
+      </c>
+      <c r="E58">
+        <v>-0.7563557039550172</v>
+      </c>
+      <c r="F58">
+        <v>-0.5402372132463686</v>
+      </c>
+      <c r="G58">
+        <v>0.3033462476243172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1796882561945775</v>
+        <v>0.155901068811815</v>
       </c>
       <c r="C59">
-        <v>0.1858265200856059</v>
+        <v>0.2092499167042468</v>
       </c>
       <c r="D59">
-        <v>-0.08415116722139625</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0101288351574476</v>
+      </c>
+      <c r="E59">
+        <v>-0.02331005818874701</v>
+      </c>
+      <c r="F59">
+        <v>-0.007171575421474803</v>
+      </c>
+      <c r="G59">
+        <v>-0.03597937342074053</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.289901255044647</v>
+        <v>0.2858040448242614</v>
       </c>
       <c r="C60">
-        <v>-0.1327663128614093</v>
+        <v>-0.1070701034274656</v>
       </c>
       <c r="D60">
-        <v>0.01357699775768092</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01663420595715964</v>
+      </c>
+      <c r="E60">
+        <v>-0.1063776070403121</v>
+      </c>
+      <c r="F60">
+        <v>0.3102211715880356</v>
+      </c>
+      <c r="G60">
+        <v>0.167813554294293</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.02385597021740057</v>
+        <v>0.03917116746288318</v>
       </c>
       <c r="C61">
-        <v>-0.06474428497888592</v>
+        <v>-0.06298915406481294</v>
       </c>
       <c r="D61">
-        <v>0.01862967304741056</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.007083381035136647</v>
+      </c>
+      <c r="E61">
+        <v>-0.0373205604422494</v>
+      </c>
+      <c r="F61">
+        <v>0.007048545986938166</v>
+      </c>
+      <c r="G61">
+        <v>-0.09036372197551185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.0126686400312961</v>
+        <v>0.01493540839744359</v>
       </c>
       <c r="C63">
-        <v>-0.03159462812374342</v>
+        <v>-0.02697519502836518</v>
       </c>
       <c r="D63">
-        <v>0.01498709663339633</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.009229368282788206</v>
+      </c>
+      <c r="E63">
+        <v>-0.01192442400070742</v>
+      </c>
+      <c r="F63">
+        <v>-0.01570975982898895</v>
+      </c>
+      <c r="G63">
+        <v>-0.09286328614302804</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04340077747812732</v>
+        <v>0.0503378199164401</v>
       </c>
       <c r="C64">
-        <v>-0.03703652249200835</v>
+        <v>-0.04626292877810353</v>
       </c>
       <c r="D64">
-        <v>0.009543575865176814</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006322426400171773</v>
+      </c>
+      <c r="E64">
+        <v>-0.01002835035481666</v>
+      </c>
+      <c r="F64">
+        <v>0.005724741909204365</v>
+      </c>
+      <c r="G64">
+        <v>-0.09497675815752114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.07193764155744674</v>
+        <v>0.07090898400854369</v>
       </c>
       <c r="C65">
-        <v>-0.08027773738194854</v>
+        <v>-0.05443439434848659</v>
       </c>
       <c r="D65">
-        <v>0.02904328279803042</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01890317891859287</v>
+      </c>
+      <c r="E65">
+        <v>-0.0611675867945555</v>
+      </c>
+      <c r="F65">
+        <v>0.01047276069920406</v>
+      </c>
+      <c r="G65">
+        <v>-0.03941541617945712</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.03852329642444235</v>
+        <v>0.04733014715551204</v>
       </c>
       <c r="C66">
-        <v>-0.1292651977257438</v>
+        <v>-0.1023859128046626</v>
       </c>
       <c r="D66">
-        <v>0.0408855641055722</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01409267995196034</v>
+      </c>
+      <c r="E66">
+        <v>-0.06307939928741578</v>
+      </c>
+      <c r="F66">
+        <v>0.02210152972977848</v>
+      </c>
+      <c r="G66">
+        <v>-0.09652888562522129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05578049198328896</v>
+        <v>0.05421900707334078</v>
       </c>
       <c r="C67">
-        <v>-0.03371818457086693</v>
+        <v>-0.0293398935147053</v>
       </c>
       <c r="D67">
-        <v>-0.003716261253870992</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005397506828627211</v>
+      </c>
+      <c r="E67">
+        <v>-0.00708661015351612</v>
+      </c>
+      <c r="F67">
+        <v>-0.008053885160849827</v>
+      </c>
+      <c r="G67">
+        <v>-0.07685136418887983</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1599607889739137</v>
+        <v>0.1563603913221187</v>
       </c>
       <c r="C68">
-        <v>0.2431855204663523</v>
+        <v>0.2687952732614492</v>
       </c>
       <c r="D68">
-        <v>-0.07704239941857421</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005762769188787531</v>
+      </c>
+      <c r="E68">
+        <v>0.00505302199023899</v>
+      </c>
+      <c r="F68">
+        <v>-0.04450598113704215</v>
+      </c>
+      <c r="G68">
+        <v>-0.02079068358218426</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.07102460877339362</v>
+        <v>0.08395027264678598</v>
       </c>
       <c r="C69">
-        <v>-0.067885343121682</v>
+        <v>-0.07304056522387008</v>
       </c>
       <c r="D69">
-        <v>0.00207970905714889</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00836266342669279</v>
+      </c>
+      <c r="E69">
+        <v>0.01188226508246806</v>
+      </c>
+      <c r="F69">
+        <v>-0.02069914975640504</v>
+      </c>
+      <c r="G69">
+        <v>-0.1018901745585965</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1566997719607988</v>
+        <v>0.1422125957709067</v>
       </c>
       <c r="C71">
-        <v>0.189982498181522</v>
+        <v>0.2300149234085546</v>
       </c>
       <c r="D71">
-        <v>-0.07313908056411593</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002168639262549311</v>
+      </c>
+      <c r="E71">
+        <v>-0.02868590441687489</v>
+      </c>
+      <c r="F71">
+        <v>-0.02881856207776904</v>
+      </c>
+      <c r="G71">
+        <v>-0.0632340460762381</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.06161389204199434</v>
+        <v>0.08388086754268081</v>
       </c>
       <c r="C72">
-        <v>-0.07259940725094761</v>
+        <v>-0.06400915742346303</v>
       </c>
       <c r="D72">
-        <v>0.003769999024615278</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.007257522562939253</v>
+      </c>
+      <c r="E72">
+        <v>-0.003557881242498071</v>
+      </c>
+      <c r="F72">
+        <v>0.01791725166903341</v>
+      </c>
+      <c r="G72">
+        <v>-0.08845667877720059</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4115622393829548</v>
+        <v>0.3662056621068139</v>
       </c>
       <c r="C73">
-        <v>-0.1926125701396164</v>
+        <v>-0.1075675649136666</v>
       </c>
       <c r="D73">
-        <v>0.01883718093574008</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.0298190690304857</v>
+      </c>
+      <c r="E73">
+        <v>-0.2445703280743333</v>
+      </c>
+      <c r="F73">
+        <v>0.544926066699714</v>
+      </c>
+      <c r="G73">
+        <v>0.3312529355921777</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.09578194191483476</v>
+        <v>0.1072369061232285</v>
       </c>
       <c r="C74">
-        <v>-0.1307420386444912</v>
+        <v>-0.105478059965864</v>
       </c>
       <c r="D74">
-        <v>0.016969705755007</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.00940629995336513</v>
+      </c>
+      <c r="E74">
+        <v>0.006046039316973902</v>
+      </c>
+      <c r="F74">
+        <v>-0.05648384008687331</v>
+      </c>
+      <c r="G74">
+        <v>-0.07742656808364674</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.228057313679897</v>
+        <v>0.2506784035119504</v>
       </c>
       <c r="C75">
-        <v>-0.1784349528229934</v>
+        <v>-0.1493102045889731</v>
       </c>
       <c r="D75">
-        <v>0.002048498119371653</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03231504989491376</v>
+      </c>
+      <c r="E75">
+        <v>0.09352855690960854</v>
+      </c>
+      <c r="F75">
+        <v>-0.1303861016263137</v>
+      </c>
+      <c r="G75">
+        <v>-0.02175564907821063</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1090168491903898</v>
+        <v>0.1197705338551632</v>
       </c>
       <c r="C76">
-        <v>-0.1301167606141693</v>
+        <v>-0.1070804111011149</v>
       </c>
       <c r="D76">
-        <v>0.00793078256179301</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01825378635516587</v>
+      </c>
+      <c r="E76">
+        <v>0.03712777341202531</v>
+      </c>
+      <c r="F76">
+        <v>-0.08006115974508569</v>
+      </c>
+      <c r="G76">
+        <v>-0.07109081079779588</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.04925082786692413</v>
+        <v>0.06908403505758498</v>
       </c>
       <c r="C77">
-        <v>-0.0595516628280976</v>
+        <v>-0.049829941798554</v>
       </c>
       <c r="D77">
-        <v>0.01839497690126772</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.0124087817940881</v>
+      </c>
+      <c r="E77">
+        <v>-0.069257699535722</v>
+      </c>
+      <c r="F77">
+        <v>-0.005620194994270658</v>
+      </c>
+      <c r="G77">
+        <v>-0.08707691540853248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04154262558788628</v>
+        <v>0.04176490297739044</v>
       </c>
       <c r="C78">
-        <v>-0.05518201984728992</v>
+        <v>-0.05331843255822775</v>
       </c>
       <c r="D78">
-        <v>0.01337598605147227</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.009215628778397907</v>
+      </c>
+      <c r="E78">
+        <v>-0.05384810925414902</v>
+      </c>
+      <c r="F78">
+        <v>0.02826384419208339</v>
+      </c>
+      <c r="G78">
+        <v>-0.09630775537928267</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001377729093344333</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0002769279558017712</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0009993436640459942</v>
+      </c>
+      <c r="E79">
+        <v>-0.008123746537086956</v>
+      </c>
+      <c r="F79">
+        <v>-0.001280885321483814</v>
+      </c>
+      <c r="G79">
+        <v>-0.009130481315758361</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04803575677247538</v>
+        <v>0.04087446091671836</v>
       </c>
       <c r="C80">
-        <v>-0.06244539951118912</v>
+        <v>-0.04801845514994676</v>
       </c>
       <c r="D80">
-        <v>0.02305822345095269</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01497735142402057</v>
+      </c>
+      <c r="E80">
+        <v>-0.0418966300428791</v>
+      </c>
+      <c r="F80">
+        <v>-0.001074030891984082</v>
+      </c>
+      <c r="G80">
+        <v>-0.05031237966343086</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1235564825809529</v>
+        <v>0.1400348253391742</v>
       </c>
       <c r="C81">
-        <v>-0.1031903201898381</v>
+        <v>-0.09145513590337558</v>
       </c>
       <c r="D81">
-        <v>0.003837223688398098</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01577044663289345</v>
+      </c>
+      <c r="E81">
+        <v>0.05690105453878318</v>
+      </c>
+      <c r="F81">
+        <v>-0.1028191792775499</v>
+      </c>
+      <c r="G81">
+        <v>-0.04002603899444584</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.04226740194572442</v>
+        <v>0.1671748270196803</v>
       </c>
       <c r="C82">
-        <v>-0.03473861848729692</v>
+        <v>-0.1141051042260281</v>
       </c>
       <c r="D82">
-        <v>0.003094717519675776</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01763978535710269</v>
+      </c>
+      <c r="E82">
+        <v>0.1680308747685024</v>
+      </c>
+      <c r="F82">
+        <v>-0.05326043540054987</v>
+      </c>
+      <c r="G82">
+        <v>-0.02650278778853853</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.02350417412492473</v>
+        <v>0.03337819887308824</v>
       </c>
       <c r="C83">
-        <v>-0.02154502164644457</v>
+        <v>-0.02943143976533664</v>
       </c>
       <c r="D83">
-        <v>0.007531753224740874</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.007794526433802746</v>
+      </c>
+      <c r="E83">
+        <v>-0.0420783613232457</v>
+      </c>
+      <c r="F83">
+        <v>0.03013665395028598</v>
+      </c>
+      <c r="G83">
+        <v>-0.05102625573763929</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2283932151086313</v>
+        <v>0.2112523123596458</v>
       </c>
       <c r="C85">
-        <v>-0.1915067695375832</v>
+        <v>-0.1410816224324658</v>
       </c>
       <c r="D85">
-        <v>0.01651824573446422</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01855658914981284</v>
+      </c>
+      <c r="E85">
+        <v>0.1046355427883512</v>
+      </c>
+      <c r="F85">
+        <v>-0.06215509352472547</v>
+      </c>
+      <c r="G85">
+        <v>0.0172374472637198</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.008190118754949091</v>
+        <v>0.01184335127568665</v>
       </c>
       <c r="C86">
-        <v>-0.02310412452688748</v>
+        <v>-0.02626781388703371</v>
       </c>
       <c r="D86">
-        <v>0.01192398445590667</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01438394366535715</v>
+      </c>
+      <c r="E86">
+        <v>-0.0756717466104911</v>
+      </c>
+      <c r="F86">
+        <v>0.02158908093227057</v>
+      </c>
+      <c r="G86">
+        <v>-0.1711107105178541</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.01005473946633805</v>
+        <v>0.02107475397496294</v>
       </c>
       <c r="C87">
-        <v>-0.02089109740326043</v>
+        <v>-0.01539175448662616</v>
       </c>
       <c r="D87">
-        <v>0.01293634338370612</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01436612524646969</v>
+      </c>
+      <c r="E87">
+        <v>-0.1016735512113765</v>
+      </c>
+      <c r="F87">
+        <v>-0.02544727790989863</v>
+      </c>
+      <c r="G87">
+        <v>-0.1072635972589868</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.08660344251745075</v>
+        <v>0.08955790013147305</v>
       </c>
       <c r="C88">
-        <v>-0.06455757647377881</v>
+        <v>-0.06512419887624118</v>
       </c>
       <c r="D88">
-        <v>0.03046346925397832</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02279030221359906</v>
+      </c>
+      <c r="E88">
+        <v>-0.00602700503262977</v>
+      </c>
+      <c r="F88">
+        <v>-0.01721319845324113</v>
+      </c>
+      <c r="G88">
+        <v>-0.1025483451952615</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2668323347968306</v>
+        <v>0.227777686489505</v>
       </c>
       <c r="C89">
-        <v>0.335117541307185</v>
+        <v>0.3713238310327633</v>
       </c>
       <c r="D89">
-        <v>-0.1213775316268207</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0009586404069554139</v>
+      </c>
+      <c r="E89">
+        <v>0.02513135100667848</v>
+      </c>
+      <c r="F89">
+        <v>-0.01453431770972967</v>
+      </c>
+      <c r="G89">
+        <v>-0.07784482400155233</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2324555924609749</v>
+        <v>0.2064520748048896</v>
       </c>
       <c r="C90">
-        <v>0.2929310032447065</v>
+        <v>0.3165217149237383</v>
       </c>
       <c r="D90">
-        <v>-0.1105320487050209</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.003929063786572468</v>
+      </c>
+      <c r="E90">
+        <v>0.01060480644769022</v>
+      </c>
+      <c r="F90">
+        <v>-0.04803026463230777</v>
+      </c>
+      <c r="G90">
+        <v>-0.0477112506637897</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1789642421479702</v>
+        <v>0.1866511441726962</v>
       </c>
       <c r="C91">
-        <v>-0.1363014498564818</v>
+        <v>-0.134875640319487</v>
       </c>
       <c r="D91">
-        <v>-0.001217664708489885</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02345118907521655</v>
+      </c>
+      <c r="E91">
+        <v>0.07776457164928734</v>
+      </c>
+      <c r="F91">
+        <v>-0.1022881433832776</v>
+      </c>
+      <c r="G91">
+        <v>-0.04356519325948466</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2215468332361804</v>
+        <v>0.1897764708122072</v>
       </c>
       <c r="C92">
-        <v>0.2042911542998761</v>
+        <v>0.2712049265334386</v>
       </c>
       <c r="D92">
-        <v>-0.1198729237962959</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03901159009271141</v>
+      </c>
+      <c r="E92">
+        <v>-0.01864678769078044</v>
+      </c>
+      <c r="F92">
+        <v>-0.05915544696692676</v>
+      </c>
+      <c r="G92">
+        <v>-0.0742763831716849</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2499510145074761</v>
+        <v>0.2285293201386927</v>
       </c>
       <c r="C93">
-        <v>0.2684997214848027</v>
+        <v>0.3142907297809765</v>
       </c>
       <c r="D93">
-        <v>-0.111376137167667</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.009787880268509365</v>
+      </c>
+      <c r="E93">
+        <v>-0.003774758021305814</v>
+      </c>
+      <c r="F93">
+        <v>-0.03732432536529701</v>
+      </c>
+      <c r="G93">
+        <v>-0.05658006922403785</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2384246810796441</v>
+        <v>0.3331223818926224</v>
       </c>
       <c r="C94">
-        <v>-0.1789277068468419</v>
+        <v>-0.2002617298605523</v>
       </c>
       <c r="D94">
-        <v>0.02328086205891228</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.03044071159038926</v>
+      </c>
+      <c r="E94">
+        <v>0.3783737492427769</v>
+      </c>
+      <c r="F94">
+        <v>-0.4035274465054383</v>
+      </c>
+      <c r="G94">
+        <v>0.3723004699351636</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.05985881108955813</v>
+        <v>0.0868189547728299</v>
       </c>
       <c r="C95">
-        <v>-0.1135626963657544</v>
+        <v>-0.07026988230641514</v>
       </c>
       <c r="D95">
-        <v>0.01787120019228733</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.007462067978036564</v>
+      </c>
+      <c r="E95">
+        <v>-0.1225378956359932</v>
+      </c>
+      <c r="F95">
+        <v>0.1480367616287455</v>
+      </c>
+      <c r="G95">
+        <v>-0.0479769006844311</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1978274318935579</v>
+        <v>0.1911070695948699</v>
       </c>
       <c r="C98">
-        <v>-0.07935422218519456</v>
+        <v>-0.04997630478381419</v>
       </c>
       <c r="D98">
-        <v>-0.01952454888620225</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.00923902049269068</v>
+      </c>
+      <c r="E98">
+        <v>-0.1231105360270699</v>
+      </c>
+      <c r="F98">
+        <v>0.1964293894635072</v>
+      </c>
+      <c r="G98">
+        <v>0.05578231879198368</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.00871603380179334</v>
+        <v>0.007803613123917615</v>
       </c>
       <c r="C101">
-        <v>-0.01942318886042008</v>
+        <v>-0.02142050753730368</v>
       </c>
       <c r="D101">
-        <v>0.01161634539761715</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01030693704866874</v>
+      </c>
+      <c r="E101">
+        <v>-0.01338557235639074</v>
+      </c>
+      <c r="F101">
+        <v>-0.01275167794983287</v>
+      </c>
+      <c r="G101">
+        <v>-0.104721895443025</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1077631839803441</v>
+        <v>0.1208550507038442</v>
       </c>
       <c r="C102">
-        <v>-0.08945325329956219</v>
+        <v>-0.08899695193497222</v>
       </c>
       <c r="D102">
-        <v>0.01670843025281384</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0002022665088761394</v>
+      </c>
+      <c r="E102">
+        <v>0.04552402496941979</v>
+      </c>
+      <c r="F102">
+        <v>-0.02065883551067376</v>
+      </c>
+      <c r="G102">
+        <v>-0.01989165169383355</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.1270806248174405</v>
+        <v>0.02035529648986073</v>
       </c>
       <c r="C104">
-        <v>0.2880440447655634</v>
+        <v>0.02725555573049271</v>
       </c>
       <c r="D104">
-        <v>0.9398758245506992</v>
+        <v>0.9860409222119605</v>
+      </c>
+      <c r="E104">
+        <v>0.08745991965524881</v>
+      </c>
+      <c r="F104">
+        <v>-0.02327474803794834</v>
+      </c>
+      <c r="G104">
+        <v>0.03771254266805919</v>
       </c>
     </row>
   </sheetData>
